--- a/gen_data/groth16.xlsx
+++ b/gen_data/groth16.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminoholeguy/Development/Zeroknowledgeworkshop2/Zeroknowledgeworkshop/circuit_test/gen_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4AA00DC-5850-AA44-9446-C09CBE46F79A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F3A6B7-4CEF-A544-AF55-50B556585F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8100" yWindow="2400" windowWidth="29940" windowHeight="18600" xr2:uid="{766EA782-9C6F-4440-95A6-247117514BA6}"/>
+    <workbookView xWindow="4620" yWindow="2400" windowWidth="29940" windowHeight="18600" xr2:uid="{766EA782-9C6F-4440-95A6-247117514BA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="groth16" localSheetId="0">Sheet1!$A$1:$NTP$1</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +41,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{E1D1D786-5CAC-A846-B7B6-57683F809CCA}" name="groth16" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/benjaminoholeguy/Development/Zeroknowledgeworkshop2/Zeroknowledgeworkshop/circuit_test/gen_data/groth16.csv" tab="0" comma="1" qualifier="none">
+    <textPr sourceFile="/Users/benjaminoholeguy/Development/Zeroknowledgeworkshop2/Zeroknowledgeworkshop/circuit_test/gen_data/groth16.csv" tab="0" comma="1" qualifier="none">
       <textFields count="1334">
         <textField/>
         <textField/>
@@ -31616,6 +31616,7 @@
         <c:axId val="652377808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="50"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -32646,7 +32647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40F1AF94-53D9-9648-B02D-2388D0FF032F}">
   <dimension ref="A1:NTP5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
